--- a/biology/Médecine/Bonjudas_Bondavin/Bonjudas_Bondavin.xlsx
+++ b/biology/Médecine/Bonjudas_Bondavin/Bonjudas_Bondavin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonjudas Bondavin, né vers 1350 et mort vers 1420, est un rabbin et médecin français.
 Il pratique la médecine à Marseille entre 1381 et 1389 en tant que médecin de la reine Marie de Provence. En 1390, il s'installe à Alghero, en Sardaigne.
-Érudit talmudique, Bondavin devient plus tard rabbin de Cagliari. En 1409, lors la visite du roi Martin II d'Aragon sur l'île, celui-ci le fait rabbin de toute la Sardaigne[1].
+Érudit talmudique, Bondavin devient plus tard rabbin de Cagliari. En 1409, lors la visite du roi Martin II d'Aragon sur l'île, celui-ci le fait rabbin de toute la Sardaigne.
 </t>
         </is>
       </c>
